--- a/pred_ohlcv/54/2019-10-18 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-18 ORBS ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>253.4166</v>
       </c>
       <c r="G2" t="n">
-        <v>11.89</v>
+        <v>11.89333333333334</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>11.9</v>
       </c>
       <c r="F3" t="n">
-        <v>37869.7999</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>11.88666666666667</v>
+        <v>11.89</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>37869.7999</v>
       </c>
       <c r="G4" t="n">
-        <v>11.88333333333333</v>
+        <v>11.88666666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>11.88</v>
+        <v>11.88333333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>11.9</v>
       </c>
       <c r="F6" t="n">
-        <v>68607.5107</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>11.87666666666667</v>
+        <v>11.88</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C7" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D7" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E7" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>68607.5107</v>
       </c>
       <c r="G7" t="n">
-        <v>11.87166666666667</v>
+        <v>11.87666666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C8" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D8" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E8" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F8" t="n">
-        <v>165232.1497</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87</v>
+        <v>11.87166666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C9" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D9" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F9" t="n">
-        <v>164695.2194</v>
+        <v>165232.1497</v>
       </c>
       <c r="G9" t="n">
-        <v>11.87166666666667</v>
+        <v>11.87</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,21 +648,24 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>164695.2194</v>
       </c>
       <c r="G10" t="n">
         <v>11.87166666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>12</v>
       </c>
       <c r="F11" t="n">
-        <v>8437.2474</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>11.87</v>
+        <v>11.87166666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>15127.2509</v>
+        <v>8437.2474</v>
       </c>
       <c r="G12" t="n">
-        <v>11.87166666666667</v>
+        <v>11.87</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C13" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D13" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E13" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F13" t="n">
-        <v>225953.1906</v>
+        <v>15127.2509</v>
       </c>
       <c r="G13" t="n">
-        <v>11.875</v>
+        <v>11.87166666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>12.2</v>
       </c>
       <c r="F14" t="n">
-        <v>1421.5574</v>
+        <v>225953.1906</v>
       </c>
       <c r="G14" t="n">
-        <v>11.88</v>
+        <v>11.875</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C15" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D15" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E15" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F15" t="n">
-        <v>35583.8808</v>
+        <v>1421.5574</v>
       </c>
       <c r="G15" t="n">
-        <v>11.88333333333333</v>
+        <v>11.88</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C16" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D16" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E16" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F16" t="n">
-        <v>40983.6065</v>
+        <v>35583.8808</v>
       </c>
       <c r="G16" t="n">
-        <v>11.88833333333334</v>
+        <v>11.88333333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>12.2</v>
       </c>
       <c r="F17" t="n">
-        <v>7883.1252</v>
+        <v>40983.6065</v>
       </c>
       <c r="G17" t="n">
-        <v>11.89333333333334</v>
+        <v>11.88833333333334</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>12.2</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>7883.1252</v>
       </c>
       <c r="G18" t="n">
-        <v>11.89833333333334</v>
+        <v>11.89333333333334</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C19" t="n">
         <v>12.2</v>
       </c>
       <c r="D19" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E19" t="n">
         <v>12.2</v>
       </c>
       <c r="F19" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G19" t="n">
-        <v>11.90500000000001</v>
+        <v>11.89833333333334</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C20" t="n">
         <v>12.2</v>
       </c>
       <c r="D20" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E20" t="n">
         <v>12.2</v>
       </c>
       <c r="F20" t="n">
-        <v>2600</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>11.91333333333334</v>
+        <v>11.90500000000001</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>12.2</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>2600</v>
       </c>
       <c r="G21" t="n">
-        <v>11.91833333333334</v>
+        <v>11.91333333333334</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>12.2</v>
       </c>
       <c r="F22" t="n">
-        <v>3361.3444</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>11.92500000000001</v>
+        <v>11.91833333333334</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>12.2</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>3361.3444</v>
       </c>
       <c r="G23" t="n">
-        <v>11.92666666666668</v>
+        <v>11.92500000000001</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>12.2</v>
       </c>
       <c r="F24" t="n">
-        <v>30000</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>11.93166666666668</v>
+        <v>11.92666666666668</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>12.2</v>
       </c>
       <c r="C25" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D25" t="n">
         <v>12.2</v>
       </c>
       <c r="E25" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F25" t="n">
-        <v>45995.1533</v>
+        <v>30000</v>
       </c>
       <c r="G25" t="n">
-        <v>11.93500000000001</v>
+        <v>11.93166666666668</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C26" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D26" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E26" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F26" t="n">
-        <v>241.9354</v>
+        <v>45995.1533</v>
       </c>
       <c r="G26" t="n">
-        <v>11.94333333333335</v>
+        <v>11.93500000000001</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C27" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="D27" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E27" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>241.9354</v>
       </c>
       <c r="G27" t="n">
-        <v>11.94666666666668</v>
+        <v>11.94333333333335</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,13 +1179,16 @@
         <v>12.1</v>
       </c>
       <c r="F28" t="n">
-        <v>174518.1842</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>11.95000000000001</v>
+        <v>11.94666666666668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C29" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D29" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E29" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>174518.1842</v>
       </c>
       <c r="G29" t="n">
-        <v>11.95666666666668</v>
+        <v>11.95000000000001</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="C30" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="D30" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E30" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>11.96000000000001</v>
+        <v>11.95666666666668</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>12.1</v>
       </c>
       <c r="F31" t="n">
-        <v>40890.395</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>11.96500000000001</v>
+        <v>11.96000000000001</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C32" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D32" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E32" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F32" t="n">
-        <v>6147.6229</v>
+        <v>40890.395</v>
       </c>
       <c r="G32" t="n">
-        <v>11.97166666666668</v>
+        <v>11.96500000000001</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C33" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D33" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E33" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F33" t="n">
-        <v>91124.0831</v>
+        <v>6147.6229</v>
       </c>
       <c r="G33" t="n">
-        <v>11.97833333333335</v>
+        <v>11.97166666666668</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>12.1</v>
       </c>
       <c r="F34" t="n">
-        <v>810</v>
+        <v>91124.0831</v>
       </c>
       <c r="G34" t="n">
-        <v>11.98166666666668</v>
+        <v>11.97833333333335</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C35" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D35" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>810</v>
       </c>
       <c r="G35" t="n">
-        <v>11.98666666666668</v>
+        <v>11.98166666666668</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E36" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F36" t="n">
-        <v>63891.157</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>11.99333333333335</v>
+        <v>11.98666666666668</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C37" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>63891.157</v>
       </c>
       <c r="G37" t="n">
-        <v>11.99500000000002</v>
+        <v>11.99333333333335</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C38" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>2783.6387</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>12.00166666666668</v>
+        <v>11.99500000000002</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C39" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D39" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E39" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F39" t="n">
-        <v>118</v>
+        <v>2783.6387</v>
       </c>
       <c r="G39" t="n">
-        <v>12.00833333333335</v>
+        <v>12.00166666666668</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>12.2</v>
       </c>
       <c r="F40" t="n">
-        <v>4658.5901</v>
+        <v>118</v>
       </c>
       <c r="G40" t="n">
-        <v>12.01500000000002</v>
+        <v>12.00833333333335</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>12.2</v>
       </c>
       <c r="F41" t="n">
-        <v>16393.4426</v>
+        <v>4658.5901</v>
       </c>
       <c r="G41" t="n">
-        <v>12.02333333333335</v>
+        <v>12.01500000000002</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C42" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D42" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E42" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>16393.4426</v>
       </c>
       <c r="G42" t="n">
-        <v>12.03000000000002</v>
+        <v>12.02333333333335</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C43" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D43" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E43" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>12.03666666666668</v>
+        <v>12.03000000000002</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C44" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D44" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E44" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F44" t="n">
-        <v>29440.4918</v>
+        <v>11</v>
       </c>
       <c r="G44" t="n">
-        <v>12.04333333333335</v>
+        <v>12.03666666666668</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C45" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D45" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E45" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>29440.4918</v>
       </c>
       <c r="G45" t="n">
-        <v>12.05000000000002</v>
+        <v>12.04333333333335</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C46" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D46" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E46" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>12.05500000000002</v>
+        <v>12.05000000000002</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>12.2</v>
       </c>
       <c r="F47" t="n">
-        <v>49175.4019</v>
+        <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>12.06166666666669</v>
+        <v>12.05500000000002</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C48" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D48" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E48" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F48" t="n">
-        <v>3889.2804</v>
+        <v>49175.4019</v>
       </c>
       <c r="G48" t="n">
-        <v>12.06833333333335</v>
+        <v>12.06166666666669</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>12.3</v>
       </c>
       <c r="F49" t="n">
-        <v>23626.275</v>
+        <v>3889.2804</v>
       </c>
       <c r="G49" t="n">
-        <v>12.07500000000002</v>
+        <v>12.06833333333335</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1662,18 +1811,21 @@
         <v>12.3</v>
       </c>
       <c r="D50" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E50" t="n">
         <v>12.3</v>
       </c>
       <c r="F50" t="n">
-        <v>121224.7617</v>
+        <v>23626.275</v>
       </c>
       <c r="G50" t="n">
-        <v>12.08333333333335</v>
+        <v>12.07500000000002</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C51" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D51" t="n">
         <v>12.4</v>
       </c>
       <c r="E51" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F51" t="n">
-        <v>8064.516</v>
+        <v>121224.7617</v>
       </c>
       <c r="G51" t="n">
-        <v>12.09166666666669</v>
+        <v>12.08333333333335</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,13 +1875,16 @@
         <v>12.4</v>
       </c>
       <c r="F52" t="n">
-        <v>102419.3549</v>
+        <v>8064.516</v>
       </c>
       <c r="G52" t="n">
-        <v>12.10166666666669</v>
+        <v>12.09166666666669</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1734,25 +1892,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C53" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D53" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E53" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F53" t="n">
-        <v>4400</v>
+        <v>102419.3549</v>
       </c>
       <c r="G53" t="n">
-        <v>12.11000000000002</v>
+        <v>12.10166666666669</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1760,25 +1921,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C54" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D54" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E54" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F54" t="n">
-        <v>6290.3225</v>
+        <v>4400</v>
       </c>
       <c r="G54" t="n">
-        <v>12.12000000000002</v>
+        <v>12.11000000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1798,13 +1962,16 @@
         <v>12.4</v>
       </c>
       <c r="F55" t="n">
-        <v>14395.1806</v>
+        <v>6290.3225</v>
       </c>
       <c r="G55" t="n">
-        <v>12.12833333333336</v>
+        <v>12.12000000000002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C56" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D56" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E56" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>14395.1806</v>
       </c>
       <c r="G56" t="n">
-        <v>12.13333333333335</v>
+        <v>12.12833333333336</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C57" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D57" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E57" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F57" t="n">
-        <v>16129.0321</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>12.14000000000002</v>
+        <v>12.13333333333335</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C58" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D58" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E58" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>16129.0321</v>
       </c>
       <c r="G58" t="n">
-        <v>12.14833333333335</v>
+        <v>12.14000000000002</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C59" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D59" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E59" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>12.16000000000002</v>
+        <v>12.14833333333335</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C60" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D60" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E60" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>12.16833333333335</v>
+        <v>12.16000000000002</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>12.3</v>
       </c>
       <c r="F61" t="n">
-        <v>316301.1625</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>12.17333333333335</v>
+        <v>12.16833333333335</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>12.3</v>
       </c>
       <c r="F62" t="n">
-        <v>800.0232</v>
+        <v>316301.1625</v>
       </c>
       <c r="G62" t="n">
-        <v>12.18000000000002</v>
+        <v>12.17333333333335</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1997,21 +2185,24 @@
         <v>12.3</v>
       </c>
       <c r="C63" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D63" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E63" t="n">
         <v>12.3</v>
       </c>
       <c r="F63" t="n">
-        <v>152904.5253</v>
+        <v>800.0232</v>
       </c>
       <c r="G63" t="n">
-        <v>12.18833333333335</v>
+        <v>12.18000000000002</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C64" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D64" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E64" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F64" t="n">
-        <v>4370</v>
+        <v>152904.5253</v>
       </c>
       <c r="G64" t="n">
-        <v>12.19166666666669</v>
+        <v>12.18833333333335</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C65" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D65" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E65" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F65" t="n">
-        <v>40650.40650406504</v>
+        <v>4370</v>
       </c>
       <c r="G65" t="n">
-        <v>12.19833333333335</v>
+        <v>12.19166666666669</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>12.3</v>
       </c>
       <c r="F66" t="n">
-        <v>242229.8577</v>
+        <v>40650.40650406504</v>
       </c>
       <c r="G66" t="n">
-        <v>12.20500000000002</v>
+        <v>12.19833333333335</v>
       </c>
       <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>12.3</v>
       </c>
       <c r="F67" t="n">
-        <v>17600</v>
+        <v>242229.8577</v>
       </c>
       <c r="G67" t="n">
-        <v>12.21333333333335</v>
+        <v>12.20500000000002</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>12.3</v>
       </c>
       <c r="F68" t="n">
-        <v>8180.0813</v>
+        <v>17600</v>
       </c>
       <c r="G68" t="n">
-        <v>12.22000000000002</v>
+        <v>12.21333333333335</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>12.3</v>
       </c>
       <c r="F69" t="n">
-        <v>10500</v>
+        <v>8180.0813</v>
       </c>
       <c r="G69" t="n">
-        <v>12.22333333333335</v>
+        <v>12.22000000000002</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>12.3</v>
       </c>
       <c r="F70" t="n">
-        <v>609.5934</v>
+        <v>10500</v>
       </c>
       <c r="G70" t="n">
-        <v>12.22833333333335</v>
+        <v>12.22333333333335</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,21 +2417,24 @@
         <v>12.3</v>
       </c>
       <c r="C71" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D71" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E71" t="n">
         <v>12.3</v>
       </c>
       <c r="F71" t="n">
-        <v>771172.48</v>
+        <v>609.5934</v>
       </c>
       <c r="G71" t="n">
-        <v>12.23500000000002</v>
+        <v>12.22833333333335</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,7 +2443,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C72" t="n">
         <v>12.4</v>
@@ -2237,15 +2452,18 @@
         <v>12.4</v>
       </c>
       <c r="E72" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F72" t="n">
-        <v>4400</v>
+        <v>771172.48</v>
       </c>
       <c r="G72" t="n">
-        <v>12.24000000000002</v>
+        <v>12.23500000000002</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C73" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D73" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E73" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F73" t="n">
-        <v>188919.5574</v>
+        <v>4400</v>
       </c>
       <c r="G73" t="n">
-        <v>12.24500000000002</v>
+        <v>12.24000000000002</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C74" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D74" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E74" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F74" t="n">
-        <v>73849.8412</v>
+        <v>188919.5574</v>
       </c>
       <c r="G74" t="n">
-        <v>12.25166666666668</v>
+        <v>12.24500000000002</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C75" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D75" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E75" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>73849.8412</v>
       </c>
       <c r="G75" t="n">
-        <v>12.25833333333335</v>
+        <v>12.25166666666668</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>12.5</v>
       </c>
       <c r="F76" t="n">
-        <v>54414.189</v>
+        <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>12.26333333333335</v>
+        <v>12.25833333333335</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C77" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D77" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E77" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F77" t="n">
-        <v>40983.6064</v>
+        <v>54414.189</v>
       </c>
       <c r="G77" t="n">
-        <v>12.27000000000001</v>
+        <v>12.26333333333335</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C78" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D78" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E78" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>40983.6064</v>
       </c>
       <c r="G78" t="n">
-        <v>12.27500000000001</v>
+        <v>12.27000000000001</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>12.5</v>
       </c>
       <c r="F79" t="n">
-        <v>5598.6407</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>12.28000000000001</v>
+        <v>12.27500000000001</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>12.5</v>
       </c>
       <c r="F80" t="n">
-        <v>2459.336</v>
+        <v>5598.6407</v>
       </c>
       <c r="G80" t="n">
-        <v>12.28500000000001</v>
+        <v>12.28000000000001</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>12.5</v>
       </c>
       <c r="F81" t="n">
-        <v>4215.9262</v>
+        <v>2459.336</v>
       </c>
       <c r="G81" t="n">
-        <v>12.29000000000001</v>
+        <v>12.28500000000001</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>12.5</v>
       </c>
       <c r="F82" t="n">
-        <v>16220.1729</v>
+        <v>4215.9262</v>
       </c>
       <c r="G82" t="n">
-        <v>12.29500000000001</v>
+        <v>12.29000000000001</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>12.5</v>
       </c>
       <c r="F83" t="n">
-        <v>6014.524</v>
+        <v>16220.1729</v>
       </c>
       <c r="G83" t="n">
-        <v>12.30000000000001</v>
+        <v>12.29500000000001</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>12.5</v>
       </c>
       <c r="F84" t="n">
-        <v>2500</v>
+        <v>6014.524</v>
       </c>
       <c r="G84" t="n">
-        <v>12.30500000000001</v>
+        <v>12.30000000000001</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>12.5</v>
       </c>
       <c r="F85" t="n">
-        <v>44332.7434</v>
+        <v>2500</v>
       </c>
       <c r="G85" t="n">
-        <v>12.31166666666667</v>
+        <v>12.30500000000001</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>12.5</v>
       </c>
       <c r="F86" t="n">
-        <v>19989.0263</v>
+        <v>44332.7434</v>
       </c>
       <c r="G86" t="n">
-        <v>12.31333333333334</v>
+        <v>12.31166666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C87" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D87" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E87" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>19989.0263</v>
       </c>
       <c r="G87" t="n">
-        <v>12.31833333333334</v>
+        <v>12.31333333333334</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C88" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D88" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E88" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F88" t="n">
-        <v>8790</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>12.32500000000001</v>
+        <v>12.31833333333334</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>12.5</v>
       </c>
       <c r="F89" t="n">
-        <v>9717.7557</v>
+        <v>8790</v>
       </c>
       <c r="G89" t="n">
-        <v>12.32833333333334</v>
+        <v>12.32500000000001</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C90" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D90" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E90" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F90" t="n">
-        <v>212.5444</v>
+        <v>9717.7557</v>
       </c>
       <c r="G90" t="n">
-        <v>12.33666666666667</v>
+        <v>12.32833333333334</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C91" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D91" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E91" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F91" t="n">
-        <v>8330</v>
+        <v>212.5444</v>
       </c>
       <c r="G91" t="n">
-        <v>12.34333333333334</v>
+        <v>12.33666666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2763,9 +3038,12 @@
         <v>8330</v>
       </c>
       <c r="G92" t="n">
-        <v>12.34833333333334</v>
+        <v>12.34333333333334</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2789,9 +3067,12 @@
         <v>8330</v>
       </c>
       <c r="G93" t="n">
-        <v>12.35500000000001</v>
+        <v>12.34833333333334</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C94" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D94" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E94" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>8330</v>
       </c>
       <c r="G94" t="n">
-        <v>12.36000000000001</v>
+        <v>12.35500000000001</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="C95" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D95" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E95" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F95" t="n">
-        <v>48.3333</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>12.37000000000001</v>
+        <v>12.36000000000001</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>12.6</v>
       </c>
       <c r="F96" t="n">
-        <v>207</v>
+        <v>48.3333</v>
       </c>
       <c r="G96" t="n">
-        <v>12.37833333333334</v>
+        <v>12.37000000000001</v>
       </c>
       <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>12.6</v>
       </c>
       <c r="F97" t="n">
-        <v>74.6825</v>
+        <v>207</v>
       </c>
       <c r="G97" t="n">
-        <v>12.38833333333334</v>
+        <v>12.37833333333334</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C98" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D98" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E98" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>74.6825</v>
       </c>
       <c r="G98" t="n">
-        <v>12.39500000000001</v>
+        <v>12.38833333333334</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>12.5</v>
       </c>
       <c r="F99" t="n">
-        <v>10019</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>12.40000000000001</v>
+        <v>12.39500000000001</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>12.5</v>
       </c>
       <c r="F100" t="n">
-        <v>17590</v>
+        <v>10019</v>
       </c>
       <c r="G100" t="n">
-        <v>12.405</v>
+        <v>12.40000000000001</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>12.5</v>
       </c>
       <c r="F101" t="n">
-        <v>4170</v>
+        <v>17590</v>
       </c>
       <c r="G101" t="n">
-        <v>12.41</v>
+        <v>12.405</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3023,9 +3328,12 @@
         <v>4170</v>
       </c>
       <c r="G102" t="n">
-        <v>12.41666666666667</v>
+        <v>12.41</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,7 +3342,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C103" t="n">
         <v>12.5</v>
@@ -3043,15 +3351,18 @@
         <v>12.5</v>
       </c>
       <c r="E103" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F103" t="n">
-        <v>4180</v>
+        <v>4170</v>
       </c>
       <c r="G103" t="n">
-        <v>12.42000000000001</v>
+        <v>12.41666666666667</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,541 +3374,24 @@
         <v>12.4</v>
       </c>
       <c r="C104" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D104" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E104" t="n">
         <v>12.4</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>4180</v>
       </c>
       <c r="G104" t="n">
-        <v>12.42333333333334</v>
+        <v>12.42000000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C105" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D105" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E105" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F105" t="n">
-        <v>4170</v>
-      </c>
-      <c r="G105" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C106" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D106" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E106" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F106" t="n">
-        <v>4180</v>
-      </c>
-      <c r="G106" t="n">
-        <v>12.435</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C107" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D107" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E107" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F107" t="n">
-        <v>10</v>
-      </c>
-      <c r="G107" t="n">
-        <v>12.43833333333333</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C108" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D108" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E108" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F108" t="n">
-        <v>4170</v>
-      </c>
-      <c r="G108" t="n">
-        <v>12.44166666666667</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C109" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D109" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E109" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F109" t="n">
-        <v>4270</v>
-      </c>
-      <c r="G109" t="n">
-        <v>12.445</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C110" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D110" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E110" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F110" t="n">
-        <v>4170</v>
-      </c>
-      <c r="G110" t="n">
-        <v>12.44833333333334</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C111" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D111" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E111" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F111" t="n">
-        <v>4170</v>
-      </c>
-      <c r="G111" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C112" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D112" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E112" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F112" t="n">
-        <v>20</v>
-      </c>
-      <c r="G112" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C113" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D113" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E113" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F113" t="n">
-        <v>4170</v>
-      </c>
-      <c r="G113" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C114" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E114" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F114" t="n">
-        <v>4170</v>
-      </c>
-      <c r="G114" t="n">
-        <v>12.45166666666667</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C115" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D115" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F115" t="n">
-        <v>12460</v>
-      </c>
-      <c r="G115" t="n">
-        <v>12.45333333333334</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C116" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D116" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E116" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F116" t="n">
-        <v>10</v>
-      </c>
-      <c r="G116" t="n">
-        <v>12.45500000000001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C117" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D117" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E117" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2995.9406</v>
-      </c>
-      <c r="G117" t="n">
-        <v>12.45500000000001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C118" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D118" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E118" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F118" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G118" t="n">
-        <v>12.45666666666667</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C119" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D119" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E119" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F119" t="n">
-        <v>10</v>
-      </c>
-      <c r="G119" t="n">
-        <v>12.45500000000001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C120" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D120" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E120" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G120" t="n">
-        <v>12.45666666666667</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C121" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D121" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E121" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F121" t="n">
-        <v>558.6731</v>
-      </c>
-      <c r="G121" t="n">
-        <v>12.45833333333334</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C122" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D122" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E122" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F122" t="n">
-        <v>13763.9074</v>
-      </c>
-      <c r="G122" t="n">
-        <v>12.45833333333334</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C123" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D123" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E123" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F123" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G123" t="n">
-        <v>12.45666666666667</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C124" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E124" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F124" t="n">
-        <v>224021</v>
-      </c>
-      <c r="G124" t="n">
-        <v>12.45666666666667</v>
-      </c>
-      <c r="H124" t="n">
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
